--- a/output/StructureDefinition-Encounter.xlsx
+++ b/output/StructureDefinition-Encounter.xlsx
@@ -2988,17 +2988,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.45703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="66.45703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="115.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.12109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3007,26 +3007,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.5546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.82421875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.51953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.9921875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.24609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="96.00390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="176.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-Encounter.xlsx
+++ b/output/StructureDefinition-Encounter.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/StructureDefinition/Encounter</t>
+    <t>http://br-ipes.com/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Version</t>
@@ -595,7 +595,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ehrrunner.com/fhir/CodingSystem/identifier-type"/&gt;
+    &lt;system value="http://br-ipes.com/fhir/CodingSystem/identifier-type"/&gt;
     &lt;code value="local"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -749,7 +749,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ehrrunner.com/fhir/CodingSystem/identifier-type"/&gt;
+    &lt;system value="http://br-ipes.com/fhir/CodingSystem/identifier-type"/&gt;
     &lt;code value="rnds"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -869,7 +869,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ehrrunner.com/fhir/CodingSystem/identifier-type"/&gt;
+    &lt;system value="http://br-ipes.com/fhir/CodingSystem/identifier-type"/&gt;
     &lt;code value="mhd"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -881,7 +881,7 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/NamingSystem/MHDDocumentOID</t>
+    <t>http://br-ipes.com/fhir/NamingSystem/MHDDocumentOID</t>
   </si>
   <si>
     <t>Encounter.identifier:mhdIdentifier.value</t>
@@ -1270,7 +1270,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Patient)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Patient)
 </t>
   </si>
   <si>
@@ -1407,7 +1407,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Referral)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Referral)
 </t>
   </si>
   <si>
@@ -1610,7 +1610,7 @@
     <t>Encounter.participant.type:especialidade.coding</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/Especialidade-1.0</t>
+    <t>http://br-ipes.com/fhir/ValueSet/Especialidade-1.0</t>
   </si>
   <si>
     <t>Encounter.participant.type:especialidade.coding.id</t>
@@ -1652,7 +1652,7 @@
     <t>Encounter.participant.type:areaAtuacao.coding</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/AreaAtuacao-1.0</t>
+    <t>http://br-ipes.com/fhir/ValueSet/AreaAtuacao-1.0</t>
   </si>
   <si>
     <t>Encounter.participant.type:areaAtuacao.coding.id</t>
@@ -1749,7 +1749,7 @@
     <t>Encounter.participant.individual.identifier.type</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/IdentifierType-1.0</t>
+    <t>http://br-ipes.com/fhir/ValueSet/IdentifierType-1.0</t>
   </si>
   <si>
     <t>Encounter.participant.individual.identifier.type.id</t>
@@ -1803,7 +1803,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Appointment)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Appointment)
 </t>
   </si>
   <si>
@@ -1937,7 +1937,7 @@
     <t>motivoAtendimentoSubjetivo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/ObservationText)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/ObservationText)
 </t>
   </si>
   <si>
@@ -1986,7 +1986,7 @@
     <t>diagnosticoPrincipal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Condition)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Condition)
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Condition|http://ehrrunner.com/fhir/StructureDefinition/Procedure)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Condition|http://br-ipes.com/fhir/StructureDefinition/Procedure)
 </t>
   </si>
   <si>
@@ -2330,7 +2330,7 @@
     <t>Encounter.hospitalization.destination</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Organization-1.0)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Organization-1.0)
 </t>
   </si>
   <si>
@@ -2570,7 +2570,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ehrrunner.com/fhir/StructureDefinition/Organization)
+    <t xml:space="preserve">Reference(http://br-ipes.com/fhir/StructureDefinition/Organization)
 </t>
   </si>
   <si>
@@ -2998,7 +2998,7 @@
     <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.35546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
